--- a/Assets/Data/Table/Convert/Condition_Condition.xlsx
+++ b/Assets/Data/Table/Convert/Condition_Condition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DF5AFF-CE44-4179-AAD6-A934EEAA9FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEB0943-2BA9-4B79-A7C5-DF03BEA019F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Condition" sheetId="1" r:id="rId1"/>
@@ -74,11 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum.Unit.
-OpType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Input_Command:Player_MoveLeft</t>
   </si>
   <si>
@@ -186,6 +181,10 @@
   <si>
     <t>Input_Command:Player_Blink</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Em.Unit.
+OpType</t>
   </si>
 </sst>
 </file>
@@ -683,18 +682,18 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="A10:K12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="36.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="36.59765625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="81" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -705,10 +704,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -717,19 +716,19 @@
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="str">
         <f>B3</f>
         <v>Input_Command:Player_MoveLeft</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7" t="str" cm="1">
         <f t="array" ref="D3">IFERROR(
@@ -753,16 +752,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="str">
         <f t="shared" ref="A4:A33" si="0">B4</f>
         <v>Input_Command:Player_MoveRight</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7" t="str" cm="1">
         <f t="array" ref="D4">IFERROR(
@@ -786,16 +785,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_MoveLeft_Crouch</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="8" t="str" cm="1">
         <f t="array" ref="D5">IFERROR(
@@ -819,16 +818,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_MoveRight_Crouch</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="8" t="str" cm="1">
         <f t="array" ref="D6">IFERROR(
@@ -852,16 +851,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Jump</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="9" t="str" cm="1">
         <f t="array" ref="D7">IFERROR(
@@ -885,16 +884,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DoubleJump</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="str" cm="1">
         <f t="array" ref="D8">IFERROR(
@@ -918,16 +917,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveBelow</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="11" t="str" cm="1">
         <f t="array" ref="D9">IFERROR(
@@ -951,16 +950,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="str">
         <f t="shared" ref="A10" si="1">B10</f>
         <v>Input_Command:Player_DiveSide</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="11" t="str" cm="1">
         <f t="array" ref="D10">IFERROR(
@@ -984,16 +983,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveMoveLeft</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="11" t="str" cm="1">
         <f t="array" ref="D11">IFERROR(
@@ -1017,16 +1016,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveMoveRight</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="11" t="str" cm="1">
         <f t="array" ref="D12">IFERROR(
@@ -1050,16 +1049,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveMoveUp</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="11" t="str" cm="1">
         <f t="array" ref="D13">IFERROR(
@@ -1083,16 +1082,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveMoveDown</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="11" t="str" cm="1">
         <f t="array" ref="D14">IFERROR(
@@ -1116,16 +1115,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveRelease</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="11" t="str" cm="1">
         <f t="array" ref="D15">IFERROR(
@@ -1149,16 +1148,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_HangRelease</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="12" t="str" cm="1">
         <f t="array" ref="D16">IFERROR(
@@ -1182,16 +1181,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Defence</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="6" t="str" cm="1">
         <f t="array" ref="D17">IFERROR(
@@ -1215,16 +1214,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DefenceRelease</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="6" t="str" cm="1">
         <f t="array" ref="D18">IFERROR(
@@ -1248,16 +1247,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Crouch</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="29" t="str" cm="1">
         <f t="array" ref="D19">IFERROR(
@@ -1281,16 +1280,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_CrouchRelease</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="29" t="str" cm="1">
         <f t="array" ref="D20">IFERROR(
@@ -1314,16 +1313,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="str">
         <f>B21</f>
         <v>Input_Command:Player_Blink</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="8" t="str" cm="1">
         <f t="array" ref="D21">IFERROR(
@@ -1347,16 +1346,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="str">
         <f>B22</f>
         <v>Input_Command:Player_BlinkCancel</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="8" t="str" cm="1">
         <f t="array" ref="D22">IFERROR(
@@ -1380,16 +1379,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Blink_Lv1</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="8" t="str" cm="1">
         <f t="array" ref="D23">IFERROR(
@@ -1413,16 +1412,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Blink_Lv2</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="8" t="str" cm="1">
         <f t="array" ref="D24">IFERROR(
@@ -1446,16 +1445,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_Interaction</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="6" t="str" cm="1">
         <f t="array" ref="D25">IFERROR(
@@ -1479,16 +1478,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_1</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="11" t="str" cm="1">
         <f t="array" ref="D26">IFERROR(
@@ -1512,16 +1511,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_2</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="13" t="str" cm="1">
         <f t="array" ref="D27">IFERROR(
@@ -1545,16 +1544,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_NormalAttack_3</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="11" t="str" cm="1">
         <f t="array" ref="D28">IFERROR(
@@ -1578,16 +1577,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_ChargeAttack_1</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="13" t="str" cm="1">
         <f t="array" ref="D29">IFERROR(
@@ -1611,16 +1610,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_BackAssaultAttack</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="14" t="str" cm="1">
         <f t="array" ref="D30">IFERROR(
@@ -1644,16 +1643,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_HangAssaultAttack</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="15" t="str" cm="1">
         <f t="array" ref="D31">IFERROR(
@@ -1677,16 +1676,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_DiveAssaultAttack</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="14" t="str" cm="1">
         <f t="array" ref="D32">IFERROR(
@@ -1710,16 +1709,16 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Input_Command:Player_AirAssaultAttack</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="15" t="str" cm="1">
         <f t="array" ref="D33">IFERROR(

--- a/Assets/Data/Table/Convert/Condition_Condition.xlsx
+++ b/Assets/Data/Table/Convert/Condition_Condition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEB0943-2BA9-4B79-A7C5-DF03BEA019F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF168CA-7EC6-4750-BA40-52FF19073491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,81 +74,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Input_Command:Player_MoveLeft</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_MoveRight</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_MoveLeft_Crouch</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_MoveRight_Crouch</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_Jump</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_DoubleJump</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_DiveMoveLeft</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_DiveMoveRight</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_DiveMoveUp</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_DiveMoveDown</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_DiveRelease</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_HangRelease</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_Defence</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_DefenceRelease</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_Crouch</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_CrouchRelease</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_Interaction</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_NormalAttack_1</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_NormalAttack_2</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_NormalAttack_3</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_ChargeAttack_1</t>
-  </si>
-  <si>
     <t>OpType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Input_Command:Player_DiveBelow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input_Command:Player_DiveSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>||</t>
   </si>
   <si>
@@ -156,35 +85,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Input_Command:Player_BackAssaultAttack</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_HangAssaultAttack</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_DiveAssaultAttack</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_AirAssaultAttack</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_BlinkCancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input_Command:Player_Blink_Lv1</t>
-  </si>
-  <si>
-    <t>Input_Command:Player_Blink_Lv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input_Command:Player_Blink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Em.Unit.
 OpType</t>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input:Player_BackAssaultAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input:Player_MoveLeft</t>
+  </si>
+  <si>
+    <t>Input:Player_MoveRight</t>
+  </si>
+  <si>
+    <t>Input:Player_MoveLeft_Crouch</t>
+  </si>
+  <si>
+    <t>Input:Player_MoveRight_Crouch</t>
+  </si>
+  <si>
+    <t>Input:Player_Jump</t>
+  </si>
+  <si>
+    <t>Input:Player_DoubleJump</t>
+  </si>
+  <si>
+    <t>Input:Player_DiveBelow</t>
+  </si>
+  <si>
+    <t>Input:Player_DiveSide</t>
+  </si>
+  <si>
+    <t>Input:Player_DiveMoveLeft</t>
+  </si>
+  <si>
+    <t>Input:Player_DiveMoveRight</t>
+  </si>
+  <si>
+    <t>Input:Player_DiveMoveUp</t>
+  </si>
+  <si>
+    <t>Input:Player_DiveMoveDown</t>
+  </si>
+  <si>
+    <t>Input:Player_DiveRelease</t>
+  </si>
+  <si>
+    <t>Input:Player_HangRelease</t>
+  </si>
+  <si>
+    <t>Input:Player_Defence</t>
+  </si>
+  <si>
+    <t>Input:Player_DefenceRelease</t>
+  </si>
+  <si>
+    <t>Input:Player_Crouch</t>
+  </si>
+  <si>
+    <t>Input:Player_CrouchRelease</t>
+  </si>
+  <si>
+    <t>Input:Player_Blink</t>
+  </si>
+  <si>
+    <t>Input:Player_BlinkCancel</t>
+  </si>
+  <si>
+    <t>Input:Player_Blink_Lv1</t>
+  </si>
+  <si>
+    <t>Input:Player_Blink_Lv2</t>
+  </si>
+  <si>
+    <t>Input:Player_Interaction</t>
+  </si>
+  <si>
+    <t>Input:Player_NormalAttack_1</t>
+  </si>
+  <si>
+    <t>Input:Player_NormalAttack_2</t>
+  </si>
+  <si>
+    <t>Input:Player_NormalAttack_3</t>
+  </si>
+  <si>
+    <t>Input:Player_ChargeAttack_1</t>
+  </si>
+  <si>
+    <t>Input:Player_HangAssaultAttack</t>
+  </si>
+  <si>
+    <t>Input:Player_AirAssaultAttack</t>
+  </si>
+  <si>
+    <t>Input:Player_BackAssaultAttack_State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input:Player_HangAssaultAttack_State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input:Player_AirAssaultAttack_State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -344,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -389,7 +398,6 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -679,10 +687,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -704,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
@@ -716,19 +724,19 @@
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="str">
         <f>B3</f>
-        <v>Input_Command:Player_MoveLeft</v>
+        <v>Input:Player_MoveLeft</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7" t="str" cm="1">
         <f t="array" ref="D3">IFERROR(
@@ -754,14 +762,14 @@
     </row>
     <row r="4" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="str">
-        <f t="shared" ref="A4:A33" si="0">B4</f>
-        <v>Input_Command:Player_MoveRight</v>
+        <f>B4</f>
+        <v>Input:Player_MoveRight</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7" t="str" cm="1">
         <f t="array" ref="D4">IFERROR(
@@ -787,14 +795,14 @@
     </row>
     <row r="5" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_MoveLeft_Crouch</v>
+        <f>B5</f>
+        <v>Input:Player_MoveLeft_Crouch</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D5" s="8" t="str" cm="1">
         <f t="array" ref="D5">IFERROR(
@@ -820,14 +828,14 @@
     </row>
     <row r="6" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_MoveRight_Crouch</v>
+        <f>B6</f>
+        <v>Input:Player_MoveRight_Crouch</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D6" s="8" t="str" cm="1">
         <f t="array" ref="D6">IFERROR(
@@ -853,14 +861,14 @@
     </row>
     <row r="7" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_Jump</v>
+        <f>B7</f>
+        <v>Input:Player_Jump</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D7" s="9" t="str" cm="1">
         <f t="array" ref="D7">IFERROR(
@@ -886,14 +894,14 @@
     </row>
     <row r="8" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_DoubleJump</v>
+        <f>B8</f>
+        <v>Input:Player_DoubleJump</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D8" s="10" t="str" cm="1">
         <f t="array" ref="D8">IFERROR(
@@ -919,14 +927,14 @@
     </row>
     <row r="9" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_DiveBelow</v>
+        <f>B9</f>
+        <v>Input:Player_DiveBelow</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D9" s="11" t="str" cm="1">
         <f t="array" ref="D9">IFERROR(
@@ -952,14 +960,14 @@
     </row>
     <row r="10" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="str">
-        <f t="shared" ref="A10" si="1">B10</f>
-        <v>Input_Command:Player_DiveSide</v>
+        <f>B10</f>
+        <v>Input:Player_DiveSide</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D10" s="11" t="str" cm="1">
         <f t="array" ref="D10">IFERROR(
@@ -985,14 +993,14 @@
     </row>
     <row r="11" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_DiveMoveLeft</v>
+        <f>B11</f>
+        <v>Input:Player_DiveMoveLeft</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D11" s="11" t="str" cm="1">
         <f t="array" ref="D11">IFERROR(
@@ -1018,14 +1026,14 @@
     </row>
     <row r="12" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_DiveMoveRight</v>
+        <f>B12</f>
+        <v>Input:Player_DiveMoveRight</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D12" s="11" t="str" cm="1">
         <f t="array" ref="D12">IFERROR(
@@ -1051,14 +1059,14 @@
     </row>
     <row r="13" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_DiveMoveUp</v>
+        <f>B13</f>
+        <v>Input:Player_DiveMoveUp</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D13" s="11" t="str" cm="1">
         <f t="array" ref="D13">IFERROR(
@@ -1084,14 +1092,14 @@
     </row>
     <row r="14" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_DiveMoveDown</v>
+        <f>B14</f>
+        <v>Input:Player_DiveMoveDown</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D14" s="11" t="str" cm="1">
         <f t="array" ref="D14">IFERROR(
@@ -1117,14 +1125,14 @@
     </row>
     <row r="15" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_DiveRelease</v>
+        <f>B15</f>
+        <v>Input:Player_DiveRelease</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D15" s="11" t="str" cm="1">
         <f t="array" ref="D15">IFERROR(
@@ -1150,14 +1158,14 @@
     </row>
     <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_HangRelease</v>
+        <f>B16</f>
+        <v>Input:Player_HangRelease</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D16" s="12" t="str" cm="1">
         <f t="array" ref="D16">IFERROR(
@@ -1183,14 +1191,14 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_Defence</v>
+        <f>B17</f>
+        <v>Input:Player_Defence</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D17" s="6" t="str" cm="1">
         <f t="array" ref="D17">IFERROR(
@@ -1216,14 +1224,14 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_DefenceRelease</v>
+        <f>B18</f>
+        <v>Input:Player_DefenceRelease</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D18" s="6" t="str" cm="1">
         <f t="array" ref="D18">IFERROR(
@@ -1247,18 +1255,18 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_Crouch</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="29" t="str" cm="1">
+    <row r="19" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="28" t="str">
+        <f>B19</f>
+        <v>Input:Player_Crouch</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="28" t="str" cm="1">
         <f t="array" ref="D19">IFERROR(
 _xlfn.SWITCH(C19,
 "==","Equall",
@@ -1280,18 +1288,18 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_CrouchRelease</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="29" t="str" cm="1">
+    <row r="20" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="str">
+        <f>B20</f>
+        <v>Input:Player_CrouchRelease</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="28" t="str" cm="1">
         <f t="array" ref="D20">IFERROR(
 _xlfn.SWITCH(C20,
 "==","Equall",
@@ -1316,13 +1324,13 @@
     <row r="21" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="str">
         <f>B21</f>
-        <v>Input_Command:Player_Blink</v>
+        <v>Input:Player_Blink</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D21" s="8" t="str" cm="1">
         <f t="array" ref="D21">IFERROR(
@@ -1349,13 +1357,13 @@
     <row r="22" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="str">
         <f>B22</f>
-        <v>Input_Command:Player_BlinkCancel</v>
+        <v>Input:Player_BlinkCancel</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D22" s="8" t="str" cm="1">
         <f t="array" ref="D22">IFERROR(
@@ -1381,14 +1389,14 @@
     </row>
     <row r="23" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_Blink_Lv1</v>
+        <f>B23</f>
+        <v>Input:Player_Blink_Lv1</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D23" s="8" t="str" cm="1">
         <f t="array" ref="D23">IFERROR(
@@ -1414,14 +1422,14 @@
     </row>
     <row r="24" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_Blink_Lv2</v>
+        <f>B24</f>
+        <v>Input:Player_Blink_Lv2</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D24" s="8" t="str" cm="1">
         <f t="array" ref="D24">IFERROR(
@@ -1447,14 +1455,14 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_Interaction</v>
+        <f>B25</f>
+        <v>Input:Player_Interaction</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D25" s="6" t="str" cm="1">
         <f t="array" ref="D25">IFERROR(
@@ -1480,14 +1488,14 @@
     </row>
     <row r="26" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_NormalAttack_1</v>
+        <f>B26</f>
+        <v>Input:Player_NormalAttack_1</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D26" s="11" t="str" cm="1">
         <f t="array" ref="D26">IFERROR(
@@ -1513,14 +1521,14 @@
     </row>
     <row r="27" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_NormalAttack_2</v>
+        <f>B27</f>
+        <v>Input:Player_NormalAttack_2</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D27" s="13" t="str" cm="1">
         <f t="array" ref="D27">IFERROR(
@@ -1546,14 +1554,14 @@
     </row>
     <row r="28" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_NormalAttack_3</v>
+        <f>B28</f>
+        <v>Input:Player_NormalAttack_3</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D28" s="11" t="str" cm="1">
         <f t="array" ref="D28">IFERROR(
@@ -1579,14 +1587,14 @@
     </row>
     <row r="29" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_ChargeAttack_1</v>
+        <f>B29</f>
+        <v>Input:Player_ChargeAttack_1</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D29" s="13" t="str" cm="1">
         <f t="array" ref="D29">IFERROR(
@@ -1611,17 +1619,17 @@
       </c>
     </row>
     <row r="30" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_BackAssaultAttack</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="14" t="str" cm="1">
+      <c r="A30" s="15" t="str">
+        <f>B30</f>
+        <v>Input:Player_BackAssaultAttack</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="15" t="str" cm="1">
         <f t="array" ref="D30">IFERROR(
 _xlfn.SWITCH(C30,
 "==","Equall",
@@ -1640,21 +1648,21 @@
 "None","None"
 ),
 "")</f>
-        <v>OR</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>Input_Command:Player_HangAssaultAttack</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="15" t="str" cm="1">
+        <v>AND</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="str">
+        <f t="shared" ref="A31:A35" si="0">B31</f>
+        <v>Input:Player_BackAssaultAttack_State</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="14" t="str" cm="1">
         <f t="array" ref="D31">IFERROR(
 _xlfn.SWITCH(C31,
 "==","Equall",
@@ -1676,18 +1684,18 @@
         <v>OR</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="str">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>Input_Command:Player_DiveAssaultAttack</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="14" t="str" cm="1">
+        <v>Input:Player_HangAssaultAttack</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="15" t="str" cm="1">
         <f t="array" ref="D32">IFERROR(
 _xlfn.SWITCH(C32,
 "==","Equall",
@@ -1706,23 +1714,89 @@
 "None","None"
 ),
 "")</f>
-        <v>OR</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="str">
+        <v>AND</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Input_Command:Player_AirAssaultAttack</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="15" t="str" cm="1">
+        <v>Input:Player_HangAssaultAttack_State</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="14" t="str" cm="1">
         <f t="array" ref="D33">IFERROR(
 _xlfn.SWITCH(C33,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>OR</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Input:Player_AirAssaultAttack</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="15" t="str" cm="1">
+        <f t="array" ref="D34">IFERROR(
+_xlfn.SWITCH(C34,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Input:Player_AirAssaultAttack_State</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="14" t="str" cm="1">
+        <f t="array" ref="D35">IFERROR(
+_xlfn.SWITCH(C35,
 "==","Equall",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
